--- a/experiments/fields.xlsx
+++ b/experiments/fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASI_MSci_Project\VortexSpin\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7018CDAA-5AA6-4313-A500-DB950E6675EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E24F7-3717-4375-B55F-A474FE07C7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="285" windowWidth="27915" windowHeight="15090" xr2:uid="{54BAB839-86B1-4AED-AEA2-F06F1A956228}"/>
+    <workbookView xWindow="3525" yWindow="2085" windowWidth="22155" windowHeight="14325" xr2:uid="{54BAB839-86B1-4AED-AEA2-F06F1A956228}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Mackey Glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,3511 +409,5596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529CD6D5-353C-48D1-9440-DA5598CBE2D7}">
-  <dimension ref="A1:A700"/>
+  <dimension ref="A1:B700"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>222.614</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>213.41300000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>213.21700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>205.81800000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>218.685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>199.584</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>223.66399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>194.57400000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>227.93600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>190.904</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>231.315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>188.22800000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>233.654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>186.20599999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>234.84899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>184.07400000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>234.84899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>184.56</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>233.655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>190.07</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>231.31700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>198.49600000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>227.93799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>206.29300000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>223.666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>211.77099999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>218.68700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>215.06299999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>213.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>216.72900000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>207.50299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>217.17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>201.785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>216.636</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>196.31700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>216.44499999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>191.33799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>218.53800000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>187.066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>222.642</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>183.68600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>225.673</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>181.34700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>225.66300000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>180.15100000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>223.42400000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>180.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>220.34100000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>181.345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>217.459</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>183.68199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>215.44300000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>187.06100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>213.87700000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>191.33199999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>211.11099999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>196.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>206.32300000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>201.77799999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>200.93899999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>207.495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>196.64500000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>213.21199999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>194.25800000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>218.68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>194.00299999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>223.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>195.59800000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>227.93299999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>198.315</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>231.31299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>201.72200000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>233.65199999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>206.37299999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>234.84899999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>212.392</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>234.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>218.02199999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>233.65600000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>221.99199999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>231.31899999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>224.56399999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>227.941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>226.559</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>223.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>228.61199999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>218.69200000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>230.85</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>213.22499999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>232.94499999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>207.50800000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>233.959</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>201.79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>232.04400000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>196.322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>226.68299999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>191.34299999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>219.50299999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>187.06899999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>212.05799999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>183.68899999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>205.065</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>181.34899999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>198.72200000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>180.15199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>193.096</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>180.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>188.27099999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>181.34299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>184.38399999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>183.68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>181.75</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>187.05699999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>181.05199999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>191.328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>183.49799999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>196.30600000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>189.87799999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>201.773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>198.49100000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>207.49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>206.18199999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>213.20699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>211.24</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>218.67599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>213.58600000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>223.655</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>213.81800000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>227.929</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>212.78</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <v>231.31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>211.608</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
+        <v>233.65100000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>211.81399999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1">
+        <v>234.84800000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>214.66499999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <v>234.851</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>219.49799999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
+        <v>233.65799999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>223.17599999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1">
+        <v>231.322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>223.965</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1">
+        <v>227.94499999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>223.07499999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1">
+        <v>223.67400000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>222.149</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
+        <v>218.697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>222.07</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="1">
+        <v>213.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>222.73500000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="1">
+        <v>207.51300000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>223.11799999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1">
+        <v>201.79499999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>221.495</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="1">
+        <v>196.327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>216.81299999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1">
+        <v>191.34700000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>210.66300000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="1">
+        <v>187.072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>205.20099999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1">
+        <v>183.691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>201.25800000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
+        <v>181.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>198.59200000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <v>180.15199999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>196.50200000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1">
+        <v>180.149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>194.49</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="1">
+        <v>181.34200000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>192.71199999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1">
+        <v>183.67699999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>192.166</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="1">
+        <v>187.054</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>194.54900000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="1">
+        <v>191.32400000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>200.422</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
+        <v>196.30099999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>207.697</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <v>201.768</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>214.21199999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="1">
+        <v>207.48500000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>219.292</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="1">
+        <v>213.202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>222.97399999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="1">
+        <v>218.67099999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>225.40299999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="1">
+        <v>223.65100000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>226.81800000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="1">
+        <v>227.92599999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>227.803</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="1">
+        <v>231.30799999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>229.34100000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="1">
+        <v>233.649</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>231.614</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="1">
+        <v>234.84800000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>232.43199999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="1">
+        <v>234.851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>229.63399999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="1">
+        <v>233.65899999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>223.75200000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="1">
+        <v>231.32400000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>216.46199999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="1">
+        <v>227.94800000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>209.16499999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="1">
+        <v>223.678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>202.648</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="1">
+        <v>218.70099999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>197.096</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="1">
+        <v>213.23500000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>192.24700000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="1">
+        <v>207.518</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>187.911</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="1">
+        <v>201.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>184.40100000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="1">
+        <v>196.33099999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>182.31100000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="1">
+        <v>191.351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>182.57599999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="1">
+        <v>187.07599999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>186.50899999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="1">
+        <v>183.69399999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>194.06700000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="1">
+        <v>181.352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>202.55</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="1">
+        <v>180.15299999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>209.33699999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="1">
+        <v>180.149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>213.55199999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="1">
+        <v>181.34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>215.328</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="1">
+        <v>183.67500000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>215.25299999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="1">
+        <v>187.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>214.22900000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="1">
+        <v>191.32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>213.53299999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="1">
+        <v>196.29599999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>214.72499999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="1">
+        <v>201.76300000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>218.495</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="1">
+        <v>207.48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>222.887</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="1">
+        <v>213.197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>224.73</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="1">
+        <v>218.666</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>223.738</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="1">
+        <v>223.64699999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>221.637</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="1">
+        <v>227.922</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>219.92699999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="1">
+        <v>231.30500000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>219.22499999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="1">
+        <v>233.64699999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>219.10599999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="1">
+        <v>234.84700000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>218.137</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="1">
+        <v>234.852</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>214.68299999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="1">
+        <v>233.661</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>209.10400000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="1">
+        <v>231.327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>203.59</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="1">
+        <v>227.95099999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>199.643</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="1">
+        <v>223.68199999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>197.596</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="1">
+        <v>218.70599999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>196.952</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="1">
+        <v>213.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>196.886</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" s="1">
+        <v>207.523</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>196.94800000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" s="1">
+        <v>201.80500000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>197.68100000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" s="1">
+        <v>196.33600000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>200.63900000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" s="1">
+        <v>191.35499999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>206.44800000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" s="1">
+        <v>187.07900000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>213.035</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" s="1">
+        <v>183.696</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>218.482</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" s="1">
+        <v>181.35300000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>222.58099999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" s="1">
+        <v>180.15299999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>225.74299999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" s="1">
+        <v>180.148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>228.27099999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" s="1">
+        <v>181.33799999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>230.327</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="1">
+        <v>183.672</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>232.14099999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" s="1">
+        <v>187.047</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>233.94200000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" s="1">
+        <v>191.316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>234.72200000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" s="1">
+        <v>196.292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>232.30500000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" s="1">
+        <v>201.75800000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>226.577</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" s="1">
+        <v>207.47499999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>219.05699999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" s="1">
+        <v>213.19200000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>211.12299999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" s="1">
+        <v>218.66200000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>203.65100000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" s="1">
+        <v>223.643</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>197.07499999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="1">
+        <v>227.91900000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>191.499</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" s="1">
+        <v>231.303</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>186.852</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" s="1">
+        <v>233.64599999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>183.17</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="1">
+        <v>234.84700000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>180.755</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="1">
+        <v>234.852</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>180.285</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="1">
+        <v>233.66200000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>183.077</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="1">
+        <v>231.32900000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>189.97800000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="1">
+        <v>227.95500000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>198.798</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="1">
+        <v>223.68600000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>206.142</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="1">
+        <v>218.71100000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>210.648</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="1">
+        <v>213.245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>212.50200000000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="1">
+        <v>207.52799999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>212.37</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="1">
+        <v>201.81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>211.11</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="1">
+        <v>196.34100000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>209.86799999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="1">
+        <v>191.35900000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>210.19499999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171" s="1">
+        <v>187.083</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>213.364</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172" s="1">
+        <v>183.69900000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>218.48599999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173" s="1">
+        <v>181.35499999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>222.387</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174" s="1">
+        <v>180.154</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>223.672</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175" s="1">
+        <v>180.148</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>223.56399999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="1">
+        <v>181.33699999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>223.53100000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="1">
+        <v>183.66900000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>224.26300000000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178" s="1">
+        <v>187.04400000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>225.53700000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179" s="1">
+        <v>191.31200000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>226.36799999999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180" s="1">
+        <v>196.28700000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>225.07900000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181" s="1">
+        <v>201.75299999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>220.49199999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182" s="1">
+        <v>207.46899999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>214.136</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183" s="1">
+        <v>213.18700000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>208.15600000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184" s="1">
+        <v>218.65700000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>203.36099999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185" s="1">
+        <v>223.63900000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>199.53100000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186" s="1">
+        <v>227.916</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>196.124</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187" s="1">
+        <v>231.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>192.86799999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188" s="1">
+        <v>233.64400000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>189.98400000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189" s="1">
+        <v>234.846</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188.23599999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190" s="1">
+        <v>234.85300000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189.03399999999999</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191" s="1">
+        <v>233.66399999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>193.55699999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" s="1">
+        <v>231.33199999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>200.80500000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193" s="1">
+        <v>227.958</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>208.34700000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194" s="1">
+        <v>223.69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>214.60900000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195" s="1">
+        <v>218.715</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>219.07499999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196" s="1">
+        <v>213.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>221.72300000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197" s="1">
+        <v>207.53299999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>222.83699999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198" s="1">
+        <v>201.815</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>223.072</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199" s="1">
+        <v>196.345</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>223.595</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200" s="1">
+        <v>191.363</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>225.59800000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B201" s="1">
+        <v>187.08600000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>228.60499999999999</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B202" s="1">
+        <v>183.70099999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>229.74600000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B203" s="1">
+        <v>181.357</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>227.13300000000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204" s="1">
+        <v>180.154</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>221.79400000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B205" s="1">
+        <v>180.14699999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>215.57499999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B206" s="1">
+        <v>181.33500000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>209.78</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B207" s="1">
+        <v>183.667</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>204.93100000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208" s="1">
+        <v>187.04</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>200.74</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209" s="1">
+        <v>191.30699999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>196.476</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B210" s="1">
+        <v>196.28200000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>192.035</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B211" s="1">
+        <v>201.74799999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>188.24199999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212" s="1">
+        <v>207.464</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>186.07300000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B213" s="1">
+        <v>213.18299999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>186.54400000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214" s="1">
+        <v>218.65199999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>190.49799999999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B215" s="1">
+        <v>223.63499999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>197.38</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B216" s="1">
+        <v>227.91200000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>205.17500000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217" s="1">
+        <v>231.297</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>212.077</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218" s="1">
+        <v>233.643</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217.084</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219" s="1">
+        <v>234.845</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219.816</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B220" s="1">
+        <v>234.85300000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220.596</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B221" s="1">
+        <v>233.666</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220.328</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B222" s="1">
+        <v>231.334</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>220.31800000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B223" s="1">
+        <v>227.96199999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>221.88</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224" s="1">
+        <v>223.69499999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>225.173</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B225" s="1">
+        <v>218.72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>227.94200000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B226" s="1">
+        <v>213.255</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>227.30199999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B227" s="1">
+        <v>207.53800000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>223.35599999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B228" s="1">
+        <v>201.82</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>218.119</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B229" s="1">
+        <v>196.35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>213.24100000000001</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B230" s="1">
+        <v>191.36699999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>209.39699999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B231" s="1">
+        <v>187.09</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>206.25299999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B232" s="1">
+        <v>183.70400000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>202.75700000000001</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B233" s="1">
+        <v>181.358</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>198.303</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B234" s="1">
+        <v>180.155</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>193.70400000000001</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B235" s="1">
+        <v>180.14699999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>190.31700000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B236" s="1">
+        <v>181.334</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>189.239</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B237" s="1">
+        <v>183.66399999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>191.208</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B238" s="1">
+        <v>187.03700000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>196.01499999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B239" s="1">
+        <v>191.303</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>202.423</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240" s="1">
+        <v>196.27799999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>209.17099999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241" s="1">
+        <v>201.74299999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>215.39400000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242" s="1">
+        <v>207.459</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>220.172</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243" s="1">
+        <v>213.178</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>222.89699999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244" s="1">
+        <v>218.648</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>223.94</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245" s="1">
+        <v>223.631</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>224.38200000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246" s="1">
+        <v>227.90899999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>225.46700000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247" s="1">
+        <v>231.29499999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>227.80099999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B248" s="1">
+        <v>233.64099999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>230.416</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B249" s="1">
+        <v>234.845</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>230.858</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250" s="1">
+        <v>234.85400000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>227.50899999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B251" s="1">
+        <v>233.667</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>221.381</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B252" s="1">
+        <v>231.33699999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>214.535</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B253" s="1">
+        <v>227.965</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>208.31899999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B254" s="1">
+        <v>223.69900000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>203.06100000000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B255" s="1">
+        <v>218.72499999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>198.357</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256" s="1">
+        <v>213.26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>193.74700000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257" s="1">
+        <v>207.54300000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>189.37799999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258" s="1">
+        <v>201.82499999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>185.88800000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259" s="1">
+        <v>196.35499999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>184.09200000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260" s="1">
+        <v>191.37100000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>185.113</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261" s="1">
+        <v>187.09299999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>189.881</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262" s="1">
+        <v>183.70599999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>197.49600000000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263" s="1">
+        <v>181.36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>205.53299999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264" s="1">
+        <v>180.155</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>212.08500000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265" s="1">
+        <v>180.14599999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>216.31299999999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266" s="1">
+        <v>181.33199999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>218.185</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267" s="1">
+        <v>183.66200000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>218.261</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B268" s="1">
+        <v>187.03299999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>217.53299999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B269" s="1">
+        <v>191.29900000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>217.404</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270" s="1">
+        <v>196.273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>219.26</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B271" s="1">
+        <v>201.738</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>223.06299999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272" s="1">
+        <v>207.45400000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>226.17</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273" s="1">
+        <v>213.173</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>225.864</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274" s="1">
+        <v>218.643</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>222.709</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275" s="1">
+        <v>223.62700000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>218.71</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276" s="1">
+        <v>227.905</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>215.322</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277" s="1">
+        <v>231.292</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>213.029</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278" s="1">
+        <v>233.64</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>211.21299999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279" s="1">
+        <v>234.84399999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>208.44</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280" s="1">
+        <v>234.85400000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>203.92099999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B281" s="1">
+        <v>233.66900000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>198.822</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B282" s="1">
+        <v>231.339</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>194.899</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B283" s="1">
+        <v>227.96799999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>193.22900000000001</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B284" s="1">
+        <v>223.703</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>194.15</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B285" s="1">
+        <v>218.72900000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>197.15600000000001</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B286" s="1">
+        <v>213.26499999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>201.27</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B287" s="1">
+        <v>207.548</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>205.93</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288" s="1">
+        <v>201.83</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>211.292</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B289" s="1">
+        <v>196.35900000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>216.99100000000001</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B290" s="1">
+        <v>191.376</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>221.56</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B291" s="1">
+        <v>187.096</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>224.40199999999999</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B292" s="1">
+        <v>183.709</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>226.196</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B293" s="1">
+        <v>181.36099999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>227.922</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B294" s="1">
+        <v>180.15600000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>230.06899999999999</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B295" s="1">
+        <v>180.14500000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>232.30099999999999</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B296" s="1">
+        <v>181.33099999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>233.57900000000001</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B297" s="1">
+        <v>183.65899999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>232.36</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B298" s="1">
+        <v>187.03</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>227.65299999999999</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B299" s="1">
+        <v>191.29499999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>220.60400000000001</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B300" s="1">
+        <v>196.26900000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>213.05799999999999</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B301" s="1">
+        <v>201.733</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>206.02500000000001</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B302" s="1">
+        <v>207.44900000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>199.71899999999999</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B303" s="1">
+        <v>213.16800000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>194.084</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B304" s="1">
+        <v>218.63800000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>189.16800000000001</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B305" s="1">
+        <v>223.62200000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>185.137</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B306" s="1">
+        <v>227.90199999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>182.27</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B307" s="1">
+        <v>231.29</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>181.173</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B308" s="1">
+        <v>233.63800000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>183.047</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B309" s="1">
+        <v>234.84399999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>188.90600000000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B310" s="1">
+        <v>234.85499999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>197.386</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B311" s="1">
+        <v>233.67</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>205.36099999999999</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B312" s="1">
+        <v>231.34200000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>210.876</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B313" s="1">
+        <v>227.97200000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>213.654</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B314" s="1">
+        <v>223.70699999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>214.21299999999999</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B315" s="1">
+        <v>218.73400000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>213.35</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B316" s="1">
+        <v>213.27</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>212.131</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B317" s="1">
+        <v>207.554</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>212.03700000000001</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B318" s="1">
+        <v>201.83500000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>214.47200000000001</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B319" s="1">
+        <v>196.364</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>219.136</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B320" s="1">
+        <v>191.38</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>223.07400000000001</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B321" s="1">
+        <v>187.1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>224.09100000000001</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B322" s="1">
+        <v>183.71199999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>223.136</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B323" s="1">
+        <v>181.363</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>221.92599999999999</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B324" s="1">
+        <v>180.15600000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>221.50299999999999</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B325" s="1">
+        <v>180.14500000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>221.941</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B326" s="1">
+        <v>181.32900000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>222.32900000000001</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B327" s="1">
+        <v>183.65700000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>220.977</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B328" s="1">
+        <v>187.02699999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>216.62</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B329" s="1">
+        <v>191.291</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>210.56899999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B330" s="1">
+        <v>196.26400000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>205.06700000000001</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B331" s="1">
+        <v>201.72800000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>201.12200000000001</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B332" s="1">
+        <v>207.44399999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>198.61</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B333" s="1">
+        <v>213.16300000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>196.834</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B334" s="1">
+        <v>218.63399999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>195.18</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B335" s="1">
+        <v>223.61799999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>193.67099999999999</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B336" s="1">
+        <v>227.898</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>193.23699999999999</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B337" s="1">
+        <v>231.28700000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>195.58199999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B338" s="1">
+        <v>233.636</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>201.364</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B339" s="1">
+        <v>234.84299999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>208.524</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B340" s="1">
+        <v>234.85499999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>214.89099999999999</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B341" s="1">
+        <v>233.672</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>219.85</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B342" s="1">
+        <v>231.345</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>223.50700000000001</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B343" s="1">
+        <v>227.97499999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>226.03299999999999</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B344" s="1">
+        <v>223.71100000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>227.63800000000001</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B345" s="1">
+        <v>218.738</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>228.822</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B346" s="1">
+        <v>213.27500000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>230.44499999999999</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B347" s="1">
+        <v>207.559</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>232.54499999999999</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B348" s="1">
+        <v>201.84</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>232.87299999999999</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B349" s="1">
+        <v>196.369</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>229.54499999999999</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B350" s="1">
+        <v>191.38399999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>223.298</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B351" s="1">
+        <v>187.10300000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>215.78200000000001</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B352" s="1">
+        <v>183.714</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>208.31899999999999</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B353" s="1">
+        <v>181.364</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>201.65</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B354" s="1">
+        <v>180.15700000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>195.964</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B355" s="1">
+        <v>180.14400000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>191.05600000000001</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B356" s="1">
+        <v>181.327</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>186.79</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B357" s="1">
+        <v>183.654</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>183.44800000000001</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B358" s="1">
+        <v>187.023</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>181.58500000000001</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B359" s="1">
+        <v>191.28700000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>182.16800000000001</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B360" s="1">
+        <v>196.25899999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>186.54400000000001</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B361" s="1">
+        <v>201.72300000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>194.45400000000001</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B362" s="1">
+        <v>207.43899999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>202.91399999999999</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B363" s="1">
+        <v>213.15799999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>209.37100000000001</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B364" s="1">
+        <v>218.62899999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>213.14699999999999</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B365" s="1">
+        <v>223.614</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>214.52199999999999</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B366" s="1">
+        <v>227.89500000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>214.155</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B367" s="1">
+        <v>231.285</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>212.982</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B368" s="1">
+        <v>233.63499999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>212.32</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B369" s="1">
+        <v>234.84299999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>213.74199999999999</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B370" s="1">
+        <v>234.85599999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>217.803</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B371" s="1">
+        <v>233.673</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>222.315</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B372" s="1">
+        <v>231.34700000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>224.261</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B373" s="1">
+        <v>227.97900000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>223.62899999999999</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B374" s="1">
+        <v>223.715</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>222.124</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B375" s="1">
+        <v>218.74299999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>221.114</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B376" s="1">
+        <v>213.28</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>221.06800000000001</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B377" s="1">
+        <v>207.56399999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>221.44</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B378" s="1">
+        <v>201.845</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>220.75200000000001</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B379" s="1">
+        <v>196.37299999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>217.334</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B380" s="1">
+        <v>191.38800000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>211.601</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B381" s="1">
+        <v>187.107</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>205.82599999999999</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B382" s="1">
+        <v>183.71700000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>201.48099999999999</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B383" s="1">
+        <v>181.36600000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>198.792</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B384" s="1">
+        <v>180.15799999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>197.203</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B385" s="1">
+        <v>180.14400000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>195.96299999999999</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B386" s="1">
+        <v>181.32599999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>194.78100000000001</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B387" s="1">
+        <v>183.65199999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>194.261</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B388" s="1">
+        <v>187.02</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>195.98400000000001</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B389" s="1">
+        <v>191.28299999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>201.125</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B390" s="1">
+        <v>196.255</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>208.12100000000001</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B391" s="1">
+        <v>201.71799999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>214.56299999999999</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B392" s="1">
+        <v>207.434</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>219.61500000000001</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B393" s="1">
+        <v>213.15299999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>223.40299999999999</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B394" s="1">
+        <v>218.624</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>226.16</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B395" s="1">
+        <v>223.61</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>228.07</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B396" s="1">
+        <v>227.892</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>229.48099999999999</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B397" s="1">
+        <v>231.28200000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>231.08699999999999</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B398" s="1">
+        <v>233.63300000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>233.06700000000001</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B399" s="1">
+        <v>234.84200000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>233.45599999999999</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B400" s="1">
+        <v>234.85599999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>230.25800000000001</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B401" s="1">
+        <v>233.67500000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>224.06</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B402" s="1">
+        <v>231.35</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>216.47499999999999</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B403" s="1">
+        <v>227.982</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>208.82499999999999</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B404" s="1">
+        <v>223.71899999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>201.892</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B405" s="1">
+        <v>218.74799999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>195.946</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B406" s="1">
+        <v>213.285</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>190.876</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B407" s="1">
+        <v>207.56899999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>186.54400000000001</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B408" s="1">
+        <v>201.85</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>183.15</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B409" s="1">
+        <v>196.37799999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>181.17599999999999</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B410" s="1">
+        <v>191.392</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>181.52199999999999</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B411" s="1">
+        <v>187.11</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>185.57400000000001</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B412" s="1">
+        <v>183.71899999999999</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>193.35599999999999</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B413" s="1">
+        <v>181.36799999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>201.94</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B414" s="1">
+        <v>180.15799999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>208.54599999999999</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B415" s="1">
+        <v>180.143</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>212.40199999999999</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B416" s="1">
+        <v>181.32400000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>213.80600000000001</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B417" s="1">
+        <v>183.649</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>213.428</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B418" s="1">
+        <v>187.01599999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>212.18700000000001</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B419" s="1">
+        <v>191.279</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>211.35900000000001</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B420" s="1">
+        <v>196.25</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>212.53700000000001</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B421" s="1">
+        <v>201.71299999999999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>216.476</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B422" s="1">
+        <v>207.429</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>221.27099999999999</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B423" s="1">
+        <v>213.148</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>223.798</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B424" s="1">
+        <v>218.62</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>223.74600000000001</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B425" s="1">
+        <v>223.60599999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>222.72900000000001</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B426" s="1">
+        <v>227.88800000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>222.12299999999999</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B427" s="1">
+        <v>231.28</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>222.428</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B428" s="1">
+        <v>233.63200000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>223.17</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B429" s="1">
+        <v>234.84200000000001</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>222.995</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B430" s="1">
+        <v>234.857</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>220.126</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B431" s="1">
+        <v>233.67599999999999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>214.535</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B432" s="1">
+        <v>231.352</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>208.446</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B433" s="1">
+        <v>227.98500000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>203.51900000000001</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B434" s="1">
+        <v>223.72300000000001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>200.09</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B435" s="1">
+        <v>218.75200000000001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>197.66900000000001</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B436" s="1">
+        <v>213.29</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>195.57300000000001</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B437" s="1">
+        <v>207.57400000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>193.53399999999999</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B438" s="1">
+        <v>201.85499999999999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>192.02099999999999</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B439" s="1">
+        <v>196.38300000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>192.381</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B440" s="1">
+        <v>191.39599999999999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>196.2</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B441" s="1">
+        <v>187.113</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>202.96</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B442" s="1">
+        <v>183.72200000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>210.148</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B443" s="1">
+        <v>181.369</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>216.16399999999999</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B444" s="1">
+        <v>180.15899999999999</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>220.70599999999999</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B445" s="1">
+        <v>180.143</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>223.87700000000001</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B446" s="1">
+        <v>181.32300000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>225.84100000000001</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B447" s="1">
+        <v>183.64699999999999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>226.946</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B448" s="1">
+        <v>187.01300000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>227.98400000000001</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B449" s="1">
+        <v>191.27500000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>229.89599999999999</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B450" s="1">
+        <v>196.245</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>232.04900000000001</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B451" s="1">
+        <v>201.708</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>231.73099999999999</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B452" s="1">
+        <v>207.42400000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>227.70599999999999</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B453" s="1">
+        <v>213.143</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>221.179</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B454" s="1">
+        <v>218.61500000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>213.81800000000001</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B455" s="1">
+        <v>223.602</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>206.81200000000001</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B456" s="1">
+        <v>227.88499999999999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>200.72</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B457" s="1">
+        <v>231.27699999999999</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>195.51499999999999</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B458" s="1">
+        <v>233.63</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>190.863</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B459" s="1">
+        <v>234.84100000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>186.75299999999999</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B460" s="1">
+        <v>234.857</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>183.65299999999999</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B461" s="1">
+        <v>233.678</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>182.256</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B462" s="1">
+        <v>231.35499999999999</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>183.68299999999999</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B463" s="1">
+        <v>227.989</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>189.042</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B464" s="1">
+        <v>223.72800000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>197.27500000000001</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B465" s="1">
+        <v>218.75700000000001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>205.35400000000001</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B466" s="1">
+        <v>213.29499999999999</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>211.292</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B467" s="1">
+        <v>207.57900000000001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>214.65100000000001</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B468" s="1">
+        <v>201.86</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>215.738</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B469" s="1">
+        <v>196.387</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>215.24799999999999</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B470" s="1">
+        <v>191.4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>214.20500000000001</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B471" s="1">
+        <v>187.11699999999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>214.03100000000001</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B472" s="1">
+        <v>183.72399999999999</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>216.16800000000001</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B473" s="1">
+        <v>181.37100000000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>220.49700000000001</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B474" s="1">
+        <v>180.15899999999999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>224.161</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B475" s="1">
+        <v>180.142</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>224.72200000000001</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B476" s="1">
+        <v>181.321</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>222.95500000000001</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B477" s="1">
+        <v>183.64400000000001</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>220.68100000000001</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B478" s="1">
+        <v>187.01</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>219.13200000000001</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B479" s="1">
+        <v>191.27</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>218.57599999999999</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B480" s="1">
+        <v>196.24100000000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>218.209</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B481" s="1">
+        <v>201.703</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>216.363</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B482" s="1">
+        <v>207.41800000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>211.90700000000001</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B483" s="1">
+        <v>213.13800000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>206.155</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B484" s="1">
+        <v>218.61</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>201.22300000000001</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B485" s="1">
+        <v>223.59800000000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>198.15100000000001</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B486" s="1">
+        <v>227.881</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>196.947</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B487" s="1">
+        <v>231.274</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>196.928</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B488" s="1">
+        <v>233.62799999999999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>197.3</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B489" s="1">
+        <v>234.84100000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>197.89400000000001</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B490" s="1">
+        <v>234.858</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>199.68</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B491" s="1">
+        <v>233.68</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>204.11500000000001</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B492" s="1">
+        <v>231.357</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>210.53399999999999</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B493" s="1">
+        <v>227.99199999999999</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>216.53299999999999</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B494" s="1">
+        <v>223.732</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>221.11099999999999</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B495" s="1">
+        <v>218.762</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>224.56299999999999</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B496" s="1">
+        <v>213.3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>227.33199999999999</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B497" s="1">
+        <v>207.584</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>229.64099999999999</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B498" s="1">
+        <v>201.86500000000001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>231.624</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B499" s="1">
+        <v>196.392</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>233.47200000000001</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B500" s="1">
+        <v>191.404</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>234.84899999999999</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B501" s="1">
+        <v>187.12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>233.82900000000001</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B502" s="1">
+        <v>183.727</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>229.226</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B503" s="1">
+        <v>181.37200000000001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>222.202</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B504" s="1">
+        <v>180.16</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>214.298</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B505" s="1">
+        <v>180.142</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>206.559</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B506" s="1">
+        <v>181.32</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>199.565</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B507" s="1">
+        <v>183.642</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>193.54900000000001</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B508" s="1">
+        <v>187.006</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>188.50800000000001</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B509" s="1">
+        <v>191.26599999999999</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>184.41499999999999</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B510" s="1">
+        <v>196.23599999999999</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>181.44499999999999</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B511" s="1">
+        <v>201.69800000000001</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>180.083</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B512" s="1">
+        <v>207.41300000000001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>181.387</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B513" s="1">
+        <v>213.13300000000001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>186.70099999999999</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B514" s="1">
+        <v>218.60599999999999</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>195.20599999999999</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B515" s="1">
+        <v>223.59399999999999</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>203.44499999999999</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B516" s="1">
+        <v>227.87799999999999</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>209.10900000000001</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B517" s="1">
+        <v>231.27199999999999</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>211.935</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B518" s="1">
+        <v>233.62700000000001</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>212.47900000000001</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B519" s="1">
+        <v>234.84</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>211.53200000000001</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B520" s="1">
+        <v>234.858</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>210.10300000000001</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B521" s="1">
+        <v>233.68100000000001</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>209.59100000000001</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B522" s="1">
+        <v>231.36</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>211.55799999999999</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B523" s="1">
+        <v>227.99600000000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>216.22</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B524" s="1">
+        <v>223.73599999999999</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>221.01400000000001</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B525" s="1">
+        <v>218.76599999999999</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>223.35400000000001</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B526" s="1">
+        <v>213.30500000000001</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>223.68100000000001</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B527" s="1">
+        <v>207.589</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>223.56800000000001</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B528" s="1">
+        <v>201.87</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>224.04900000000001</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B529" s="1">
+        <v>196.39699999999999</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>225.24600000000001</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B530" s="1">
+        <v>191.40899999999999</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>226.465</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B531" s="1">
+        <v>187.124</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>226.31800000000001</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B532" s="1">
+        <v>183.72900000000001</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>223.09</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B533" s="1">
+        <v>181.374</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>217.15299999999999</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B534" s="1">
+        <v>180.16</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>210.80500000000001</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B535" s="1">
+        <v>180.14099999999999</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>205.43799999999999</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B536" s="1">
+        <v>181.31800000000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>201.173</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B537" s="1">
+        <v>183.63900000000001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>197.529</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B538" s="1">
+        <v>187.00299999999999</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>194.09800000000001</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B539" s="1">
+        <v>191.262</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>190.90600000000001</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B540" s="1">
+        <v>196.23099999999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>188.46899999999999</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B541" s="1">
+        <v>201.69300000000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>187.90199999999999</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B542" s="1">
+        <v>207.40799999999999</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>190.69800000000001</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B543" s="1">
+        <v>213.12799999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>196.99799999999999</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B544" s="1">
+        <v>218.601</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>204.71700000000001</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B545" s="1">
+        <v>223.589</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>211.721</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B546" s="1">
+        <v>227.875</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>217.04599999999999</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B547" s="1">
+        <v>231.26900000000001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>220.47499999999999</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B548" s="1">
+        <v>233.625</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>222.166</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B549" s="1">
+        <v>234.839</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>222.60900000000001</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B550" s="1">
+        <v>234.85900000000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>222.75899999999999</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B551" s="1">
+        <v>233.68299999999999</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>223.96100000000001</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B552" s="1">
+        <v>231.36199999999999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>226.78200000000001</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B553" s="1">
+        <v>227.999</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>229.32300000000001</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B554" s="1">
+        <v>223.74</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>228.64500000000001</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B555" s="1">
+        <v>218.77099999999999</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>224.49700000000001</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B556" s="1">
+        <v>213.31</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>218.631</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B557" s="1">
+        <v>207.59399999999999</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>212.684</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B558" s="1">
+        <v>201.875</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>207.54900000000001</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B559" s="1">
+        <v>196.40100000000001</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>203.29599999999999</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B560" s="1">
+        <v>191.41300000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>199.251</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B561" s="1">
+        <v>187.12700000000001</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>194.84100000000001</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B562" s="1">
+        <v>183.732</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>190.547</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B563" s="1">
+        <v>181.376</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>187.40100000000001</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B564" s="1">
+        <v>180.161</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>186.393</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B565" s="1">
+        <v>180.14099999999999</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>188.51599999999999</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B566" s="1">
+        <v>181.316</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>194.00899999999999</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B567" s="1">
+        <v>183.636</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>201.471</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B568" s="1">
+        <v>186.999</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>208.92599999999999</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B569" s="1">
+        <v>191.25800000000001</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>215.03800000000001</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B570" s="1">
+        <v>196.227</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>219.06</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B571" s="1">
+        <v>201.68799999999999</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>220.88399999999999</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B572" s="1">
+        <v>207.40299999999999</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>221.12700000000001</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B573" s="1">
+        <v>213.12299999999999</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>220.90600000000001</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B574" s="1">
+        <v>218.596</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>221.60400000000001</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B575" s="1">
+        <v>223.58500000000001</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>224.108</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B576" s="1">
+        <v>227.87100000000001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>227.428</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B577" s="1">
+        <v>231.267</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>228.54499999999999</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B578" s="1">
+        <v>233.624</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>225.846</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B579" s="1">
+        <v>234.839</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>220.732</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B580" s="1">
+        <v>234.85900000000001</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>215.22200000000001</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B581" s="1">
+        <v>233.684</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>210.51300000000001</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B582" s="1">
+        <v>231.36500000000001</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>206.79400000000001</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B583" s="1">
+        <v>228.00200000000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>203.346</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B584" s="1">
+        <v>223.744</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>199.249</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B585" s="1">
+        <v>218.77600000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>194.62200000000001</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B586" s="1">
+        <v>213.315</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>190.62</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B587" s="1">
+        <v>207.59899999999999</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>188.422</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B588" s="1">
+        <v>201.88</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>189.02099999999999</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B589" s="1">
+        <v>196.40600000000001</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>192.85400000000001</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B590" s="1">
+        <v>191.417</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>199.08199999999999</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B591" s="1">
+        <v>187.131</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>206.154</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B592" s="1">
+        <v>183.73500000000001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>212.858</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B593" s="1">
+        <v>181.37700000000001</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>218.256</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B594" s="1">
+        <v>180.161</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>221.61600000000001</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B595" s="1">
+        <v>180.14</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>223.00399999999999</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B596" s="1">
+        <v>181.315</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>223.29</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B597" s="1">
+        <v>183.63399999999999</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>223.76</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B598" s="1">
+        <v>186.99600000000001</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>225.512</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B599" s="1">
+        <v>191.25399999999999</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>228.404</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B600" s="1">
+        <v>196.22200000000001</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>230.322</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B601" s="1">
+        <v>201.68299999999999</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>228.75700000000001</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B602" s="1">
+        <v>207.398</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>223.745</v>
       </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B603" s="1">
+        <v>213.11799999999999</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>217.27799999999999</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B604" s="1">
+        <v>218.59200000000001</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>211.07900000000001</v>
       </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B605" s="1">
+        <v>223.58099999999999</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>205.858</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B606" s="1">
+        <v>227.86799999999999</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>201.399</v>
       </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B607" s="1">
+        <v>231.26400000000001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>197.03</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B608" s="1">
+        <v>233.62200000000001</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>192.523</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B609" s="1">
+        <v>234.83799999999999</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>188.46199999999999</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B610" s="1">
+        <v>234.86</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>185.738</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B611" s="1">
+        <v>233.68600000000001</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>185.37200000000001</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B612" s="1">
+        <v>231.36699999999999</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>188.44399999999999</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B613" s="1">
+        <v>228.006</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>194.869</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B614" s="1">
+        <v>223.74799999999999</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>202.77</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B615" s="1">
+        <v>218.78</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>210.08600000000001</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B616" s="1">
+        <v>213.32</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>215.583</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B617" s="1">
+        <v>207.60400000000001</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>218.761</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B618" s="1">
+        <v>201.88499999999999</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>219.821</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B619" s="1">
+        <v>196.411</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>219.54400000000001</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B620" s="1">
+        <v>191.42099999999999</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>219.167</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B621" s="1">
+        <v>187.13399999999999</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>220.14699999999999</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B622" s="1">
+        <v>183.73699999999999</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>223.16399999999999</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B623" s="1">
+        <v>181.37899999999999</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>226.63499999999999</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B624" s="1">
+        <v>180.16200000000001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>227.358</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B625" s="1">
+        <v>180.14</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>224.48</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B626" s="1">
+        <v>181.31299999999999</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>219.79</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B627" s="1">
+        <v>183.631</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>215.14</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B628" s="1">
+        <v>186.99299999999999</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>211.48</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B629" s="1">
+        <v>191.25</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>208.71799999999999</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B630" s="1">
+        <v>196.21700000000001</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>205.81100000000001</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B631" s="1">
+        <v>201.678</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>201.72200000000001</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B632" s="1">
+        <v>207.393</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>196.886</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B633" s="1">
+        <v>213.113</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>192.798</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B634" s="1">
+        <v>218.58699999999999</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>190.714</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B635" s="1">
+        <v>223.577</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>191.43199999999999</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B636" s="1">
+        <v>227.864</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>194.971</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B637" s="1">
+        <v>231.262</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>200.37</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B638" s="1">
+        <v>233.62</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>206.495</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B639" s="1">
+        <v>234.83799999999999</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>212.70400000000001</v>
       </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B640" s="1">
+        <v>234.86</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>218.303</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B641" s="1">
+        <v>233.68700000000001</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>222.25200000000001</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B642" s="1">
+        <v>231.37</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>224.30099999999999</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B643" s="1">
+        <v>228.00899999999999</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>225.239</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B644" s="1">
+        <v>223.75200000000001</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>226.25399999999999</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B645" s="1">
+        <v>218.785</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>228.18</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B646" s="1">
+        <v>213.32499999999999</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>230.70599999999999</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B647" s="1">
+        <v>207.61</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>232.10599999999999</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B648" s="1">
+        <v>201.89</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>230.315</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B649" s="1">
+        <v>196.41499999999999</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>225.02099999999999</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B650" s="1">
+        <v>191.42500000000001</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>217.96199999999999</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B651" s="1">
+        <v>187.137</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>210.935</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B652" s="1">
+        <v>183.74</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>204.751</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B653" s="1">
+        <v>181.38</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>199.358</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B654" s="1">
+        <v>180.16200000000001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>194.39099999999999</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B655" s="1">
+        <v>180.13900000000001</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>189.79</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B656" s="1">
+        <v>181.31200000000001</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>185.916</v>
       </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B657" s="1">
+        <v>183.62899999999999</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>183.328</v>
       </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B658" s="1">
+        <v>186.989</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>182.90799999999999</v>
       </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B659" s="1">
+        <v>191.24600000000001</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>185.929</v>
       </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B660" s="1">
+        <v>196.21299999999999</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>192.684</v>
       </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B661" s="1">
+        <v>201.673</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>201.08</v>
       </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B662" s="1">
+        <v>207.38800000000001</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>208.49100000000001</v>
       </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B663" s="1">
+        <v>213.108</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>213.56200000000001</v>
       </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B664" s="1">
+        <v>218.58199999999999</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>216.09899999999999</v>
       </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B665" s="1">
+        <v>223.57300000000001</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>216.56100000000001</v>
       </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B666" s="1">
+        <v>227.86099999999999</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>215.77799999999999</v>
       </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B667" s="1">
+        <v>231.25899999999999</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>214.95599999999999</v>
       </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B668" s="1">
+        <v>233.619</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>215.64500000000001</v>
       </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B669" s="1">
+        <v>234.83699999999999</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>218.815</v>
       </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B670" s="1">
+        <v>234.86099999999999</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>223.137</v>
       </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B671" s="1">
+        <v>233.68899999999999</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>225.29499999999999</v>
       </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B672" s="1">
+        <v>231.37200000000001</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>224.197</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B673" s="1">
+        <v>228.01300000000001</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>221.465</v>
       </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B674" s="1">
+        <v>223.756</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>218.83799999999999</v>
       </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B675" s="1">
+        <v>218.79</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>217.214</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B676" s="1">
+        <v>213.33</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>216.44300000000001</v>
       </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B677" s="1">
+        <v>207.61500000000001</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>215.28399999999999</v>
       </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B678" s="1">
+        <v>201.89500000000001</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>212.102</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B679" s="1">
+        <v>196.42</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>206.864</v>
       </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B680" s="1">
+        <v>191.429</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>201.54</v>
       </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B681" s="1">
+        <v>187.14099999999999</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>197.791</v>
       </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B682" s="1">
+        <v>183.74199999999999</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>196.21100000000001</v>
       </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B683" s="1">
+        <v>181.38200000000001</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>196.512</v>
       </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B684" s="1">
+        <v>180.16300000000001</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>197.84899999999999</v>
       </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B685" s="1">
+        <v>180.13900000000001</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>199.52600000000001</v>
       </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B686" s="1">
+        <v>181.31</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>201.77699999999999</v>
       </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B687" s="1">
+        <v>183.626</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>205.79499999999999</v>
       </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B688" s="1">
+        <v>186.98599999999999</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>211.71899999999999</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B689" s="1">
+        <v>191.24199999999999</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>217.495</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B690" s="1">
+        <v>196.208</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>221.821</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B691" s="1">
+        <v>201.66800000000001</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>224.96700000000001</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B692" s="1">
+        <v>207.38300000000001</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>227.565</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B693" s="1">
+        <v>213.10300000000001</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>229.935</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B694" s="1">
+        <v>218.578</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>232.09800000000001</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>233.96299999999999</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>234.93899999999999</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>233.25200000000001</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>228.071</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>220.78</v>
       </c>
